--- a/uef_diem_danh/ExportExcels/Attendance Result sample.xlsx
+++ b/uef_diem_danh/ExportExcels/Attendance Result sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmings\Project\Real projects\Diem_danh_nha_nuoc\real-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2027A1B-00D2-45C6-A5A3-E85A364988F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F96803A-056D-4F61-BAC3-01811185FE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,19 +86,11 @@
       <b/>
       <sz val="13"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -108,6 +100,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -127,15 +125,15 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -156,11 +154,17 @@
         <vertAlign val="baseline"/>
         <sz val="13"/>
         <color theme="1"/>
-        <name val="Calibri"/>
+        <name val="Arial"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -175,9 +179,9 @@
         <vertAlign val="baseline"/>
         <sz val="13"/>
         <color theme="1" tint="4.9989318521683403E-2"/>
-        <name val="Calibri"/>
+        <name val="Arial"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
       <fill>
@@ -200,11 +204,17 @@
         <vertAlign val="baseline"/>
         <sz val="13"/>
         <color theme="1"/>
-        <name val="Calibri"/>
+        <name val="Arial"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -219,11 +229,17 @@
         <vertAlign val="baseline"/>
         <sz val="13"/>
         <color theme="1"/>
-        <name val="Calibri"/>
+        <name val="Arial"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -238,11 +254,17 @@
         <vertAlign val="baseline"/>
         <sz val="13"/>
         <color theme="1"/>
-        <name val="Calibri"/>
+        <name val="Arial"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -536,53 +558,53 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="H1" sqref="H1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.21875" style="1" customWidth="1"/>
     <col min="5" max="6" width="8.88671875" style="1"/>
     <col min="7" max="7" width="7.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.44140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="14.44140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -593,7 +615,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>

--- a/uef_diem_danh/ExportExcels/Attendance Result sample.xlsx
+++ b/uef_diem_danh/ExportExcels/Attendance Result sample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmings\Project\Real projects\Diem_danh_nha_nuoc\real-app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F96803A-056D-4F61-BAC3-01811185FE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C63B4DD-C41C-4C4C-A43F-63D737AD796F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>KẾT QUẢ ĐIỂM DANH</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Buổi: 1</t>
+  </si>
+  <si>
+    <t>Trạng thái</t>
   </si>
 </sst>
 </file>
@@ -126,9 +129,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -136,11 +136,14 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
     <dxf>
       <font>
         <b val="0"/>
@@ -163,31 +166,6 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="13"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
     </dxf>
@@ -267,6 +245,56 @@
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -281,12 +309,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6A403BB5-73A3-4C8E-8F3F-88523927D748}" name="Table1" displayName="Table1" ref="A5:C6" insertRow="1" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A5:C6" xr:uid="{6A403BB5-73A3-4C8E-8F3F-88523927D748}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{70CDB739-9E54-4F14-893F-4F72C29E1230}" name="STT" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{9A47C021-2F49-4AE1-97D5-4598104B482F}" name="Họ và tên" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{A74E98BC-EF90-41BE-B44C-9E9B64A9FACD}" name="Thời gian" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6A403BB5-73A3-4C8E-8F3F-88523927D748}" name="Table1" displayName="Table1" ref="A5:D6" insertRow="1" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A5:D6" xr:uid="{6A403BB5-73A3-4C8E-8F3F-88523927D748}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{70CDB739-9E54-4F14-893F-4F72C29E1230}" name="STT" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{9A47C021-2F49-4AE1-97D5-4598104B482F}" name="Họ và tên" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{A74E98BC-EF90-41BE-B44C-9E9B64A9FACD}" name="Trạng thái" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{389EA61D-EAEA-43C7-BF20-187D06233288}" name="Thời gian" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -558,7 +587,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:K1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -577,12 +606,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
     </row>
     <row r="2" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -605,20 +634,24 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/uef_diem_danh/ExportExcels/Attendance Result sample.xlsx
+++ b/uef_diem_danh/ExportExcels/Attendance Result sample.xlsx
@@ -1,64 +1,84 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C63B4DD-C41C-4C4C-A43F-63D737AD796F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EDB1804-AF25-4F9A-8EA9-907CD1E28C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Kết quả điểm danh" sheetId="1" r:id="rId1"/>
+    <sheet name="Học viên" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>ĐẢNG ỦY PHƯỜNG XUÂN HÒA</t>
+  </si>
+  <si>
+    <t>ĐẢNG CỘNG SẢN VIỆT NAM</t>
+  </si>
+  <si>
+    <t>TRUNG TÂM CHÍNH TRỊ
+*</t>
+  </si>
+  <si>
+    <t>HỌ</t>
+  </si>
+  <si>
+    <t>TÊN</t>
+  </si>
   <si>
     <t>KẾT QUẢ ĐIỂM DANH</t>
   </si>
   <si>
-    <t>Môn: Tư tưởng Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>Tổng số: 100</t>
-  </si>
-  <si>
-    <t>Hiển diện: 90</t>
-  </si>
-  <si>
-    <t>STT</t>
-  </si>
-  <si>
-    <t>Họ và tên</t>
-  </si>
-  <si>
-    <t>Thời gian</t>
-  </si>
-  <si>
-    <t>Buổi: 1</t>
-  </si>
-  <si>
-    <t>Trạng thái</t>
+    <t>TRẠNG THÁI</t>
+  </si>
+  <si>
+    <t>THỜI GIAN</t>
+  </si>
+  <si>
+    <t>(Tổng số: &lt;TOTAL_STUDENTS&gt; Hiện diện &lt;TOTAL_PRESENT_STUDENTS&gt;)</t>
+  </si>
+  <si>
+    <t>LỚP: &lt;STUDY_CLASS_TITLE&gt; - BUỔI: &lt;CLASS_SESSION_TITLE&gt; - SỐ TIẾT: &lt;NUMBER_OF_SESSION&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
+  </numFmts>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,53 +87,87 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="VNI-Times"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="1" tint="4.9989318521683403E-2"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -121,181 +175,99 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{F0ECAC79-0990-466A-934D-AE871023ECF1}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{BF93CA27-2C56-4010-BA60-DEB0715B5879}"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="13"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -306,19 +278,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6A403BB5-73A3-4C8E-8F3F-88523927D748}" name="Table1" displayName="Table1" ref="A5:D6" insertRow="1" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A5:D6" xr:uid="{6A403BB5-73A3-4C8E-8F3F-88523927D748}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{70CDB739-9E54-4F14-893F-4F72C29E1230}" name="STT" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{9A47C021-2F49-4AE1-97D5-4598104B482F}" name="Họ và tên" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{A74E98BC-EF90-41BE-B44C-9E9B64A9FACD}" name="Trạng thái" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{389EA61D-EAEA-43C7-BF20-187D06233288}" name="Thời gian" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -584,82 +543,423 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.21875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="8.88671875" style="1"/>
-    <col min="7" max="7" width="7.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5546875" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="6.77734375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20" style="8" customWidth="1"/>
+    <col min="3" max="3" width="8" style="6" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="32.77734375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="29.88671875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="29.33203125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="H1" s="6" t="s">
+    <row r="1" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1"/>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="G1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="17"/>
+    </row>
+    <row r="2" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+    </row>
+    <row r="4" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+    </row>
+    <row r="5" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="1:8" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-    </row>
-    <row r="2" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="B6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="E6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+    </row>
+    <row r="7" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7" s="13"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7" s="14"/>
+      <c r="H7"/>
+    </row>
+    <row r="8" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+    </row>
+    <row r="9" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+    </row>
+    <row r="10" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+    </row>
+    <row r="11" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+    </row>
+    <row r="12" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+    </row>
+    <row r="13" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+    </row>
+    <row r="14" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+    </row>
+    <row r="15" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+    </row>
+    <row r="16" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+    </row>
+    <row r="17" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+    </row>
+    <row r="18" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+    </row>
+    <row r="19" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+    </row>
+    <row r="20" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+    </row>
+    <row r="21" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+    </row>
+    <row r="22" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+    </row>
+    <row r="23" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+    </row>
+    <row r="24" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+    </row>
+    <row r="25" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+    </row>
+    <row r="26" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+    </row>
+    <row r="27" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+    </row>
+    <row r="28" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+    </row>
+    <row r="29" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+    </row>
+    <row r="30" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+    </row>
+    <row r="31" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+    </row>
+    <row r="32" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+    </row>
+    <row r="33" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+    </row>
+    <row r="34" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+    </row>
+    <row r="35" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+    </row>
+    <row r="36" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+    </row>
+    <row r="37" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="H1:K1"/>
+  <mergeCells count="6">
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="B4:H4"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>